--- a/docs/VSPL PERFORMANCE.xlsx
+++ b/docs/VSPL PERFORMANCE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subbaraman.N\Desktop\VSPL WEBSITE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -429,11 +424,23 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -449,18 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +602,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,16 +805,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
@@ -836,10 +831,10 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
@@ -851,13 +846,13 @@
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="41">
+      <c r="C6" s="45">
         <v>40269</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="46">
         <v>40633</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -877,9 +872,9 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
@@ -897,9 +892,9 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
@@ -921,13 +916,13 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="41">
+      <c r="C9" s="45">
         <v>40634</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="46">
         <v>40999</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -947,9 +942,9 @@
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
@@ -967,9 +962,9 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
@@ -991,13 +986,13 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="37">
+      <c r="C12" s="38">
         <v>41000</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>41364</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -1017,9 +1012,9 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="21" t="s">
         <v>9</v>
       </c>
@@ -1039,9 +1034,9 @@
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1061,13 +1056,13 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="37">
+      <c r="C15" s="38">
         <v>41365</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>41729</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -1087,9 +1082,9 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="21" t="s">
         <v>9</v>
       </c>
@@ -1107,9 +1102,9 @@
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
@@ -1131,13 +1126,13 @@
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="37">
+      <c r="C18" s="38">
         <v>41730</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>42094</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -1157,9 +1152,9 @@
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="21" t="s">
         <v>9</v>
       </c>
@@ -1177,9 +1172,9 @@
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="17" t="s">
         <v>10</v>
       </c>
@@ -1202,13 +1197,13 @@
       <c r="K20" s="36"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="37">
+      <c r="C21" s="38">
         <v>42095</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>42460</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -1228,9 +1223,9 @@
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="21" t="s">
         <v>9</v>
       </c>
@@ -1248,9 +1243,9 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="17" t="s">
         <v>10</v>
       </c>
@@ -1272,13 +1267,13 @@
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="37">
+      <c r="C24" s="38">
         <v>42461</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>42825</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="21" t="s">
@@ -1299,9 +1294,9 @@
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="21" t="s">
         <v>9</v>
       </c>
@@ -1319,9 +1314,9 @@
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="17" t="s">
         <v>10</v>
       </c>
@@ -1344,13 +1339,13 @@
       <c r="K26" s="36"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="37">
+      <c r="C27" s="38">
         <v>42826</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>43190</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="21" t="s">
@@ -1371,9 +1366,9 @@
       <c r="K27" s="36"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="21" t="s">
         <v>9</v>
       </c>
@@ -1394,9 +1389,9 @@
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="27" t="s">
         <v>10</v>
       </c>
@@ -1427,12 +1422,12 @@
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="34">
         <f>+G29+G26+G23+G20+G17+G14+G11+G8</f>
         <v>1630</v>
@@ -1452,6 +1447,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
@@ -1466,17 +1472,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
   </mergeCells>
